--- a/src/main/resources/cases/cases_v4.xlsx
+++ b/src/main/resources/cases/cases_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingnan/code/01-Github/autoapi/src/main/resources/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AB0A07-9D76-E446-901A-9DB2F68EB560}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55532C-9CBE-C343-B866-4B23A01214FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="-20640" windowWidth="26560" windowHeight="12620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7100" yWindow="-18440" windowWidth="26560" windowHeight="12620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>{"phone":"18268046852","password":"123456"}</t>
   </si>
   <si>
-    <t>CaseId(用例编号)</t>
-  </si>
-  <si>
     <t>{"phone":"1826804","password":"123456"}</t>
   </si>
   <si>
@@ -185,6 +182,10 @@
   </si>
   <si>
     <t>http://127.0.0.1:8848/api/financelog/getFinanceLogList</t>
+  </si>
+  <si>
+    <t>CaseId(用例编号)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -659,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -673,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -687,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -701,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -715,7 +716,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -729,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -743,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -757,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -771,7 +772,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -785,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -799,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -813,7 +814,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -827,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -855,9 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -869,7 +868,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>16</v>
@@ -892,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -906,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1">
@@ -934,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -942,13 +941,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -956,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
